--- a/Competencias360/TablaCompetencias.xlsx
+++ b/Competencias360/TablaCompetencias.xlsx
@@ -12,24 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
-    <t>Mejora Continua</t>
-  </si>
-  <si>
-    <t>Trabajo en Equipo</t>
-  </si>
-  <si>
-    <t>Organización</t>
-  </si>
-  <si>
-    <t>Adaptabilidad</t>
-  </si>
-  <si>
-    <t>Servicio al Cliente</t>
+    <t>trabajo en equipo</t>
+  </si>
+  <si>
+    <t>hablidades blandas</t>
+  </si>
+  <si>
+    <t>Rapidez</t>
   </si>
   <si>
     <t>Total</t>
@@ -50,19 +44,10 @@
     <t>Jose Manuel</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
     <t>3.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>Anderson</t>
   </si>
 </sst>
 </file>
@@ -131,21 +116,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.19921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.64453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.9609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.93359375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.71875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.53515625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.9921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.64453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.71875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.0546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.9921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -170,98 +153,51 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>100.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="I2" t="n" s="0">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>15</v>
+      <c r="E3" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>58.33</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>65.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>2.0</v>
+        <v>2.33</v>
       </c>
     </row>
   </sheetData>
